--- a/schedule/就職活動アタック企業リストteam.xlsx
+++ b/schedule/就職活動アタック企業リストteam.xlsx
@@ -5,54 +5,54 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20556" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="企業リスト" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="田中 章 情報系学科 - 個人用ビュー" guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1743" windowHeight="817" activeSheetId="1"/>
+    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
+    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
+    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
+    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
+    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
+    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
+    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
     <customWorkbookView name="teacher - 個人用ビュー" guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" mergeInterval="0" personalView="1" xWindow="109" yWindow="10" windowWidth="1714" windowHeight="1049" activeSheetId="1"/>
-    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
-    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
-    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
-    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
-    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
-    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
-    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
-    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="田中 章 情報系学科 - 個人用ビュー" guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1743" windowHeight="817" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
   <si>
     <t>企業名</t>
     <rPh sb="0" eb="2">
@@ -861,12 +861,204 @@
   <si>
     <t>プランナー、プログラマー/エンジニア、デザイナー</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202124"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">108-0014 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202124"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>東京都港区芝５丁目３７−８</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202124"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バンダイナムコ未来研究所</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー、デザイナー、サウンドクリエイターなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パックマン、バトルシティー、ガンダム、太鼓の達人、いろんなアニメのゲーム</t>
+    <rPh sb="19" eb="21">
+      <t>タイコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タツジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アソビきれない毎日を」　世界中の人々にゲームを楽しんでほしい！</t>
+    <rPh sb="8" eb="10">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セカイジュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒトビト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンダイナムコの中自体にもたくさんのグループがあります。</t>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都品川区東品川4丁目12番8号 品川シーサイドイーストタワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジニア、デザイナー、プランナー、音楽映像総合</t>
+    <rPh sb="18" eb="20">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣と魔法のログレス、Fate/EXTRA、閃乱カグラ</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚き、感動を世界に届ける、新しいエンターテインメントの創造</t>
+    <rPh sb="0" eb="1">
+      <t>オドロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都港区六本木6-10-1六本木ヒルズ森タワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジニア、デザイナー、プランナー、ビジネス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナザーエデン、SINoALICE、釣りスタ、消滅都市、ダンメモ</t>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウメツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎日を楽しく幸せに、社会を自由で効率的に。新しいサービスをより早く、</t>
+    <rPh sb="0" eb="2">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シアワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +1326,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF445566"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1161,7 +1373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1834,11 +2046,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2021,9 +2259,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2225,30 +2460,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2557,39 +2799,39 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28:M30"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="6" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="63.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="60.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="53" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" style="4" customWidth="1"/>
-    <col min="10" max="12" width="30.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="40.77734375" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="46.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="4" customWidth="1"/>
+    <col min="10" max="12" width="30.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="40.75" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
-      <c r="A1" s="136" t="s">
+    <row r="1" spans="1:18" ht="30.75">
+      <c r="A1" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -2601,7 +2843,7 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="9.9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:18" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="16" t="s">
@@ -2656,11 +2898,11 @@
       <c r="F4" s="48"/>
       <c r="G4" s="33"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="77"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="12">
@@ -2677,11 +2919,11 @@
       <c r="F5" s="51"/>
       <c r="G5" s="34"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="12">
@@ -2694,36 +2936,36 @@
         <v>2</v>
       </c>
       <c r="D6" s="49"/>
-      <c r="E6" s="111"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="51"/>
       <c r="G6" s="29"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="104"/>
       <c r="E7" s="50"/>
       <c r="F7" s="51"/>
       <c r="G7" s="29"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="13">
@@ -2735,16 +2977,16 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="52"/>
       <c r="F8" s="57"/>
       <c r="G8" s="31"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="108"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="14">
@@ -2761,11 +3003,11 @@
       <c r="F9" s="54"/>
       <c r="G9" s="30"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="12">
@@ -2782,11 +3024,11 @@
       <c r="F10" s="51"/>
       <c r="G10" s="29"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="12">
@@ -2803,17 +3045,17 @@
       <c r="F11" s="51"/>
       <c r="G11" s="45"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2824,11 +3066,11 @@
       <c r="F12" s="54"/>
       <c r="G12" s="30"/>
       <c r="H12" s="26"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="13">
@@ -2845,11 +3087,11 @@
       <c r="F13" s="57"/>
       <c r="G13" s="31"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="67"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="14">
@@ -2866,11 +3108,11 @@
       <c r="F14" s="54"/>
       <c r="G14" s="30"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="121"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="120"/>
     </row>
     <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="14">
@@ -2887,11 +3129,11 @@
       <c r="F15" s="54"/>
       <c r="G15" s="30"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="12">
@@ -2904,15 +3146,15 @@
         <v>3</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="E16" s="111"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="51"/>
       <c r="G16" s="29"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="12">
@@ -2929,11 +3171,11 @@
       <c r="F17" s="51"/>
       <c r="G17" s="29"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="13">
@@ -2950,32 +3192,42 @@
       <c r="F18" s="57"/>
       <c r="G18" s="31"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
+      <c r="D19" s="144" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="14">
@@ -2987,16 +3239,24 @@
       <c r="C20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="30"/>
+      <c r="D20" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="H20" s="26"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1">
       <c r="A21" s="12">
@@ -3008,16 +3268,24 @@
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="29"/>
+      <c r="D21" s="146" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>132</v>
+      </c>
       <c r="H21" s="25"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="75"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="74"/>
     </row>
     <row r="22" spans="1:17" ht="220.5" customHeight="1">
       <c r="A22" s="12">
@@ -3029,7 +3297,7 @@
       <c r="C22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="132" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="50" t="s">
@@ -3038,21 +3306,21 @@
       <c r="F22" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="85" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="134" t="s">
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="133" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3066,7 +3334,7 @@
       <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="135" t="s">
+      <c r="D23" s="134" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="52"/>
@@ -3075,11 +3343,11 @@
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="12">
@@ -3096,17 +3364,17 @@
       <c r="F24" s="51"/>
       <c r="G24" s="32"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="79" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -3117,11 +3385,11 @@
       <c r="F25" s="51"/>
       <c r="G25" s="29"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="14">
@@ -3138,11 +3406,11 @@
       <c r="F26" s="54"/>
       <c r="G26" s="30"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="17.100000000000001" customHeight="1">
@@ -3160,23 +3428,23 @@
       <c r="F27" s="51"/>
       <c r="G27" s="35"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="13">
         <v>25</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="77" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="142" t="s">
+      <c r="D28" s="140" t="s">
         <v>114</v>
       </c>
       <c r="E28" s="52"/>
@@ -3186,14 +3454,14 @@
       <c r="G28" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="123" t="s">
+      <c r="H28" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67" t="s">
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3207,28 +3475,28 @@
       <c r="C29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="143" t="s">
+      <c r="D29" s="141" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="137" t="s">
+      <c r="G29" s="135" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="138" t="s">
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="136" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="55.8" customHeight="1">
+    <row r="30" spans="1:17" ht="55.9" customHeight="1">
       <c r="A30" s="14">
         <v>27</v>
       </c>
@@ -3238,7 +3506,7 @@
       <c r="C30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="144" t="s">
+      <c r="D30" s="142" t="s">
         <v>118</v>
       </c>
       <c r="E30" s="53" t="s">
@@ -3247,21 +3515,21 @@
       <c r="F30" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="137" t="s">
         <v>110</v>
       </c>
       <c r="H30" s="26"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="85" t="s">
+      <c r="I30" s="67"/>
+      <c r="J30" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="140" t="s">
+      <c r="K30" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="L30" s="141" t="s">
+      <c r="L30" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="M30" s="68"/>
+      <c r="M30" s="67"/>
     </row>
     <row r="31" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="14">
@@ -3278,11 +3546,11 @@
       <c r="F31" s="54"/>
       <c r="G31" s="30"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
     </row>
     <row r="32" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="12">
@@ -3299,17 +3567,17 @@
       <c r="F32" s="51"/>
       <c r="G32" s="36"/>
       <c r="H32" s="25"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="13">
         <v>30</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="77" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3318,34 +3586,34 @@
       <c r="D33" s="56"/>
       <c r="E33" s="52"/>
       <c r="F33" s="57"/>
-      <c r="G33" s="96"/>
+      <c r="G33" s="95"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="87">
+      <c r="A34" s="86">
         <v>31</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="90"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="14">
@@ -3362,17 +3630,17 @@
       <c r="F35" s="54"/>
       <c r="G35" s="41"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="14">
         <v>33</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -3383,17 +3651,17 @@
       <c r="F36" s="54"/>
       <c r="G36" s="41"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -3404,32 +3672,32 @@
       <c r="F37" s="51"/>
       <c r="G37" s="39"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="81">
+      <c r="A38" s="80">
         <v>35</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="82" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
       <c r="F38" s="63"/>
-      <c r="G38" s="84"/>
+      <c r="G38" s="83"/>
       <c r="H38" s="44"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="14">
@@ -3446,17 +3714,17 @@
       <c r="F39" s="54"/>
       <c r="G39" s="41"/>
       <c r="H39" s="26"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
     </row>
     <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="79" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3467,11 +3735,11 @@
       <c r="F40" s="51"/>
       <c r="G40" s="38"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
     </row>
     <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="12">
@@ -3488,17 +3756,17 @@
       <c r="F41" s="51"/>
       <c r="G41" s="38"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
     </row>
     <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="79" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -3509,11 +3777,11 @@
       <c r="F42" s="51"/>
       <c r="G42" s="38"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
     </row>
     <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="14">
@@ -3530,38 +3798,38 @@
       <c r="F43" s="54"/>
       <c r="G43" s="41"/>
       <c r="H43" s="26"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
     </row>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="87">
+      <c r="A44" s="86">
         <v>41</v>
       </c>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
     </row>
     <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="14">
         <v>42</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -3572,11 +3840,11 @@
       <c r="F45" s="54"/>
       <c r="G45" s="41"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="12">
@@ -3593,11 +3861,11 @@
       <c r="F46" s="51"/>
       <c r="G46" s="38"/>
       <c r="H46" s="25"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
     </row>
     <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="12">
@@ -3614,32 +3882,32 @@
       <c r="F47" s="51"/>
       <c r="G47" s="38"/>
       <c r="H47" s="25"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="72"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="71"/>
     </row>
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13">
         <v>45</v>
       </c>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="116" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="52"/>
-      <c r="F48" s="118"/>
+      <c r="F48" s="117"/>
       <c r="G48" s="42"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
     </row>
     <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="14">
@@ -3656,11 +3924,11 @@
       <c r="F49" s="54"/>
       <c r="G49" s="43"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
     </row>
     <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="12">
@@ -3677,11 +3945,11 @@
       <c r="F50" s="51"/>
       <c r="G50" s="40"/>
       <c r="H50" s="25"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="72"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="71"/>
     </row>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="12">
@@ -3698,11 +3966,11 @@
       <c r="F51" s="51"/>
       <c r="G51" s="38"/>
       <c r="H51" s="25"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
     </row>
     <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="12">
@@ -3719,11 +3987,11 @@
       <c r="F52" s="51"/>
       <c r="G52" s="38"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="72"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="71"/>
     </row>
     <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13">
@@ -3740,11 +4008,11 @@
       <c r="F53" s="57"/>
       <c r="G53" s="42"/>
       <c r="H53" s="27"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="73"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="72"/>
     </row>
     <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="14">
@@ -3761,11 +4029,11 @@
       <c r="F54" s="54"/>
       <c r="G54" s="41"/>
       <c r="H54" s="26"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
     </row>
     <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="12">
@@ -3782,17 +4050,17 @@
       <c r="F55" s="51"/>
       <c r="G55" s="38"/>
       <c r="H55" s="25"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
     </row>
     <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="12">
         <v>53</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="79" t="s">
         <v>76</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -3803,11 +4071,11 @@
       <c r="F56" s="51"/>
       <c r="G56" s="38"/>
       <c r="H56" s="25"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="114"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="115"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="114"/>
     </row>
     <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="12">
@@ -3824,11 +4092,11 @@
       <c r="F57" s="51"/>
       <c r="G57" s="38"/>
       <c r="H57" s="25"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="114"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="115"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="113"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="114"/>
     </row>
     <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="13">
@@ -3845,17 +4113,17 @@
       <c r="F58" s="57"/>
       <c r="G58" s="42"/>
       <c r="H58" s="27"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="102"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="103"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="102"/>
     </row>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="14">
         <v>56</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="78" t="s">
         <v>78</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3866,11 +4134,11 @@
       <c r="F59" s="54"/>
       <c r="G59" s="41"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="101"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="100"/>
     </row>
     <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="14">
@@ -3887,11 +4155,11 @@
       <c r="F60" s="54"/>
       <c r="G60" s="41"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="101"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="100"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="12">
@@ -3908,11 +4176,11 @@
       <c r="F61" s="51"/>
       <c r="G61" s="38"/>
       <c r="H61" s="25"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
     </row>
     <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="14">
@@ -3929,11 +4197,11 @@
       <c r="F62" s="54"/>
       <c r="G62" s="41"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
     </row>
     <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13">
@@ -3950,11 +4218,11 @@
       <c r="F63" s="57"/>
       <c r="G63" s="42"/>
       <c r="H63" s="27"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
     </row>
     <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="14">
@@ -3971,11 +4239,11 @@
       <c r="F64" s="54"/>
       <c r="G64" s="41"/>
       <c r="H64" s="26"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
     </row>
     <row r="65" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="12">
@@ -3992,11 +4260,11 @@
       <c r="F65" s="51"/>
       <c r="G65" s="38"/>
       <c r="H65" s="25"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="98"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
     </row>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="14">
@@ -4008,16 +4276,16 @@
       <c r="C66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="119"/>
-      <c r="E66" s="120"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="119"/>
       <c r="F66" s="54"/>
       <c r="G66" s="41"/>
       <c r="H66" s="26"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
     </row>
     <row r="67" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="14">
@@ -4034,11 +4302,11 @@
       <c r="F67" s="54"/>
       <c r="G67" s="41"/>
       <c r="H67" s="26"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="68"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="103"/>
+      <c r="M67" s="67"/>
     </row>
     <row r="68" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="13">
@@ -4055,11 +4323,11 @@
       <c r="F68" s="57"/>
       <c r="G68" s="42"/>
       <c r="H68" s="27"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
     </row>
     <row r="69" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="14">
@@ -4076,11 +4344,11 @@
       <c r="F69" s="54"/>
       <c r="G69" s="41"/>
       <c r="H69" s="26"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
     </row>
     <row r="70" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="12">
@@ -4097,11 +4365,11 @@
       <c r="F70" s="51"/>
       <c r="G70" s="38"/>
       <c r="H70" s="25"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
     </row>
     <row r="71" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="12">
@@ -4118,11 +4386,11 @@
       <c r="F71" s="51"/>
       <c r="G71" s="38"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
     </row>
     <row r="72" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="12">
@@ -4139,11 +4407,11 @@
       <c r="F72" s="51"/>
       <c r="G72" s="38"/>
       <c r="H72" s="25"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="66"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
     </row>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="13">
@@ -4160,11 +4428,11 @@
       <c r="F73" s="57"/>
       <c r="G73" s="42"/>
       <c r="H73" s="27"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
     </row>
     <row r="74" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="14">
@@ -4181,11 +4449,11 @@
       <c r="F74" s="54"/>
       <c r="G74" s="41"/>
       <c r="H74" s="26"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
     </row>
     <row r="75" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="12">
@@ -4202,17 +4470,17 @@
       <c r="F75" s="51"/>
       <c r="G75" s="38"/>
       <c r="H75" s="25"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="66"/>
-      <c r="M75" s="66"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="65"/>
     </row>
     <row r="76" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="12">
         <v>73</v>
       </c>
-      <c r="B76" s="80" t="s">
+      <c r="B76" s="79" t="s">
         <v>90</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -4223,122 +4491,122 @@
       <c r="F76" s="51"/>
       <c r="G76" s="38"/>
       <c r="H76" s="25"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="65"/>
     </row>
     <row r="77" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A77" s="124">
+      <c r="A77" s="123">
         <v>74</v>
       </c>
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="126" t="s">
+      <c r="C77" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="127"/>
-      <c r="E77" s="128"/>
-      <c r="F77" s="129"/>
-      <c r="G77" s="130"/>
-      <c r="H77" s="131"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="132"/>
-      <c r="K77" s="132"/>
-      <c r="L77" s="132"/>
-      <c r="M77" s="132"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="128"/>
+      <c r="G77" s="129"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="131"/>
+      <c r="J77" s="131"/>
+      <c r="K77" s="131"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="131"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
+    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId6"/>
     </customSheetView>
-    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId8"/>
     </customSheetView>
-    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId9"/>
     </customSheetView>
-    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId10"/>
     </customSheetView>
-    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId11"/>
     </customSheetView>
-    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId12"/>
     </customSheetView>
-    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId13"/>
     </customSheetView>
-    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId14"/>
     </customSheetView>
-    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId15"/>
     </customSheetView>
@@ -4348,93 +4616,93 @@
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId16"/>
     </customSheetView>
-    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId17"/>
     </customSheetView>
-    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId18"/>
     </customSheetView>
-    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId19"/>
     </customSheetView>
-    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId20"/>
     </customSheetView>
-    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId21"/>
     </customSheetView>
-    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId22"/>
     </customSheetView>
-    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId23"/>
     </customSheetView>
-    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId24"/>
     </customSheetView>
-    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId25"/>
     </customSheetView>
-    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId26"/>
     </customSheetView>
-    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId27"/>
     </customSheetView>
-    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId28"/>
     </customSheetView>
-    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId29"/>
     </customSheetView>
-    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
+    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId30"/>
     </customSheetView>
-    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId31"/>
     </customSheetView>

--- a/schedule/就職活動アタック企業リストteam.xlsx
+++ b/schedule/就職活動アタック企業リストteam.xlsx
@@ -16,43 +16,43 @@
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="teacher - 個人用ビュー" guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" mergeInterval="0" personalView="1" xWindow="109" yWindow="10" windowWidth="1714" windowHeight="1049" activeSheetId="1"/>
+    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
+    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
+    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
+    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
+    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
+    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
+    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
+    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="田中 章 情報系学科 - 個人用ビュー" guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1743" windowHeight="817" activeSheetId="1"/>
-    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
-    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
-    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
-    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
-    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
-    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
-    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
-    <customWorkbookView name="teacher - 個人用ビュー" guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" mergeInterval="0" personalView="1" xWindow="109" yWindow="10" windowWidth="1714" windowHeight="1049" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
   <si>
     <t>企業名</t>
     <rPh sb="0" eb="2">
@@ -1051,6 +1051,66 @@
     <rPh sb="31" eb="32">
       <t>ハヤ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発経験：C/C++、Java、C#など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書、職務経歴書、エントリーフォーム、アンケート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++,Java,C言語,C#,Android,,OS,iOSも使ってる</t>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須資格なし</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書、職務経歴書、ポートフォリオ</t>
+    <rPh sb="4" eb="6">
+      <t>ショクム</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケイレキショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>≪職歴・スキル≫
+アジャイル開発プロジェクトの参加経験
+HTML5／CSS3／JavaScriptに関する知識、サイト制作の経験
+jQueryの利用経験
+HTML5アプリケーションの開発経験
+スマートフォン向けサイトの開発経験
+Unityを使用した開発経験</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発経験：C/C++言語又はJava</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書（写真添付）
+自己PR文
+職務経歴書 （社会人経験のある方）
+エントリーシート　　　　　　　　　　　　　　【任意】自作のプログラム、説明書（簡易マニュアル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語：C、C++、C#、Objective-C、Java、HTML5、JavaScriptなど</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2482,15 +2542,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2799,10 +2859,10 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2822,16 +2882,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -3208,7 +3268,7 @@
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="143" t="s">
         <v>120</v>
       </c>
       <c r="E19" s="50" t="s">
@@ -3239,7 +3299,7 @@
       <c r="C20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="144" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="53" t="s">
@@ -3268,7 +3328,7 @@
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="145" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="50" t="s">
@@ -3387,9 +3447,15 @@
       <c r="H25" s="25"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
+      <c r="K25" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="14">
@@ -3408,9 +3474,15 @@
       <c r="H26" s="26"/>
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
+      <c r="K26" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="M26" s="84" t="s">
+        <v>138</v>
+      </c>
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="17.100000000000001" customHeight="1">
@@ -3430,9 +3502,15 @@
       <c r="H27" s="25"/>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
+      <c r="K27" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" s="65" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="13">
@@ -4520,93 +4598,93 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
+    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId6"/>
     </customSheetView>
-    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId8"/>
     </customSheetView>
-    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId9"/>
     </customSheetView>
-    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId10"/>
     </customSheetView>
-    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId11"/>
     </customSheetView>
-    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId12"/>
     </customSheetView>
-    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId13"/>
     </customSheetView>
-    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId14"/>
     </customSheetView>
-    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId15"/>
     </customSheetView>
@@ -4616,93 +4694,93 @@
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId16"/>
     </customSheetView>
-    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId17"/>
     </customSheetView>
-    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId18"/>
     </customSheetView>
-    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId19"/>
     </customSheetView>
-    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId20"/>
     </customSheetView>
-    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId21"/>
     </customSheetView>
-    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId22"/>
     </customSheetView>
-    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId23"/>
     </customSheetView>
-    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId24"/>
     </customSheetView>
-    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId25"/>
     </customSheetView>
-    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId26"/>
     </customSheetView>
-    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
+    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId27"/>
     </customSheetView>
-    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId28"/>
     </customSheetView>
-    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId29"/>
     </customSheetView>
-    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId30"/>
     </customSheetView>
-    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId31"/>
     </customSheetView>

--- a/schedule/就職活動アタック企業リストteam.xlsx
+++ b/schedule/就職活動アタック企業リストteam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,43 +16,43 @@
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="田中 章 情報系学科 - 個人用ビュー" guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1743" windowHeight="817" activeSheetId="1"/>
+    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
+    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
+    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
+    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
+    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
+    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
+    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
     <customWorkbookView name="teacher - 個人用ビュー" guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" mergeInterval="0" personalView="1" xWindow="109" yWindow="10" windowWidth="1714" windowHeight="1049" activeSheetId="1"/>
-    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
-    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
-    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
-    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
-    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
-    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
-    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
-    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="田中 章 情報系学科 - 個人用ビュー" guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1743" windowHeight="817" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
   <si>
     <t>企業名</t>
     <rPh sb="0" eb="2">
@@ -1113,12 +1113,135 @@
     <t>言語：C、C++、C#、Objective-C、Java、HTML5、JavaScriptなど</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+〒104-0052
+東京都中央区月島1-2-13 ワイズビルディング6階</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A列車で行こうシリーズ</t>
+    <rPh sb="1" eb="3">
+      <t>レッシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岐阜県各務原市蘇原月丘町3丁目17番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔界戦記ディスガイアシリーズ</t>
+    <rPh sb="0" eb="2">
+      <t>マカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪開発室の所在地:大阪府大阪市北区野崎町9番13号　梅田扇町通ビル8F</t>
+    <rPh sb="6" eb="9">
+      <t>ショザイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクナビからエントリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+（1）履歴書（写真貼付必須）（2）成績証明書（3）住民票記載事項証明書 　※当社フォーマットを印刷し、ご使用ください。（4）作文（「働くこととは」という題材で、800字以内）（5）作品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募作品について:
+1）[推奨] Windows環境で動作するプログラム作品、ソースコード、実行ファイル、説明文書
+2）[推奨] ご自身が最も得意とされる分野、担当箇所のアピールが可能な作品
+（WindowsPC上で確認可能なものに限る）
+説明文書：
+1.使用したツール、環境
+2.上記を使用した理由
+3.制作期間、担当箇所
+4.作品でアピールしたいポイント
+※CD-ROM、DVD-ROMなどの記録メディアでお送りください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京本社：〒140-0013東京都品川区南大井6-21-12大森プライムビル</t>
+    <rPh sb="0" eb="4">
+      <t>トウキョウホンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロ野球　ファミスタ　シリーズ</t>
+    <rPh sb="2" eb="4">
+      <t>ヤキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コロプラのグループの会社だが、コロプラグループ外の作品も手掛けている。コンシューマータイトルが多め。</t>
+    <rPh sb="10" eb="12">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テガ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>札幌オフィスの所在地：
+〒060-0062
+北海道札幌市中央区南2条西5丁目10-2 サンワード南2西5ビル</t>
+    <rPh sb="0" eb="2">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショザイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募書類の送付（郵送またはメール）</t>
+    <rPh sb="8" eb="10">
+      <t>ユウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学・大学院・専門・短大卒以上
+※ 学部・学科不問
+C++、C#またはPHPが理解できる方。
+ゲーム開発に強い興味のある方。
+チャレンジ精神が旺盛で、技術習得に貪欲な方。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書（写真付き),エントリーシート,ポートフォリオなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1406,6 +1529,28 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2136,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2413,9 +2558,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2552,6 +2694,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2859,10 +3012,10 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2882,16 +3035,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -2996,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="49"/>
-      <c r="E6" s="110"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="51"/>
       <c r="G6" s="29"/>
       <c r="H6" s="25"/>
@@ -3016,7 +3169,7 @@
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="104"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="50"/>
       <c r="F7" s="51"/>
       <c r="G7" s="29"/>
@@ -3024,7 +3177,7 @@
       <c r="I7" s="65"/>
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
-      <c r="L7" s="105"/>
+      <c r="L7" s="104"/>
       <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1">
@@ -3037,7 +3190,7 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="106"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="52"/>
       <c r="F8" s="57"/>
       <c r="G8" s="31"/>
@@ -3046,7 +3199,7 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="66"/>
-      <c r="M8" s="107"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="14">
@@ -3150,7 +3303,7 @@
       <c r="I13" s="66"/>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
-      <c r="L13" s="121"/>
+      <c r="L13" s="120"/>
       <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1">
@@ -3172,7 +3325,7 @@
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
       <c r="L14" s="67"/>
-      <c r="M14" s="120"/>
+      <c r="M14" s="119"/>
     </row>
     <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="14">
@@ -3206,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="E16" s="110"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="51"/>
       <c r="G16" s="29"/>
       <c r="H16" s="25"/>
@@ -3268,7 +3421,7 @@
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="142" t="s">
         <v>120</v>
       </c>
       <c r="E19" s="50" t="s">
@@ -3299,7 +3452,7 @@
       <c r="C20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="144" t="s">
+      <c r="D20" s="143" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="53" t="s">
@@ -3328,7 +3481,7 @@
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="144" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="50" t="s">
@@ -3357,7 +3510,7 @@
       <c r="C22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="132" t="s">
+      <c r="D22" s="131" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="50" t="s">
@@ -3380,7 +3533,7 @@
       </c>
       <c r="K22" s="65"/>
       <c r="L22" s="65"/>
-      <c r="M22" s="133" t="s">
+      <c r="M22" s="132" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3394,7 +3547,7 @@
       <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="133" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="52"/>
@@ -3505,7 +3658,7 @@
       <c r="K27" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="133" t="s">
+      <c r="L27" s="132" t="s">
         <v>140</v>
       </c>
       <c r="M27" s="65" t="s">
@@ -3522,7 +3675,7 @@
       <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="140" t="s">
+      <c r="D28" s="139" t="s">
         <v>114</v>
       </c>
       <c r="E28" s="52"/>
@@ -3532,7 +3685,7 @@
       <c r="G28" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="121" t="s">
         <v>104</v>
       </c>
       <c r="I28" s="66"/>
@@ -3553,14 +3706,14 @@
       <c r="C29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="141" t="s">
+      <c r="D29" s="140" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="135" t="s">
+      <c r="G29" s="134" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="26" t="s">
@@ -3570,7 +3723,7 @@
       <c r="J29" s="67"/>
       <c r="K29" s="67"/>
       <c r="L29" s="67"/>
-      <c r="M29" s="136" t="s">
+      <c r="M29" s="135" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3584,7 +3737,7 @@
       <c r="C30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="141" t="s">
         <v>118</v>
       </c>
       <c r="E30" s="53" t="s">
@@ -3593,7 +3746,7 @@
       <c r="F30" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="137" t="s">
+      <c r="G30" s="136" t="s">
         <v>110</v>
       </c>
       <c r="H30" s="26"/>
@@ -3601,10 +3754,10 @@
       <c r="J30" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="138" t="s">
+      <c r="K30" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="L30" s="139" t="s">
+      <c r="L30" s="138" t="s">
         <v>113</v>
       </c>
       <c r="M30" s="67"/>
@@ -3619,9 +3772,13 @@
       <c r="C31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="146" t="s">
+        <v>142</v>
+      </c>
       <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
+      <c r="F31" s="54" t="s">
+        <v>143</v>
+      </c>
       <c r="G31" s="30"/>
       <c r="H31" s="26"/>
       <c r="I31" s="67"/>
@@ -3640,16 +3797,28 @@
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="49" t="s">
+        <v>144</v>
+      </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
+      <c r="F32" s="51" t="s">
+        <v>145</v>
+      </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="147" t="s">
+        <v>146</v>
+      </c>
       <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
+      <c r="J32" s="65" t="s">
+        <v>147</v>
+      </c>
       <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="L32" s="132" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="132" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="13">
@@ -3661,16 +3830,30 @@
       <c r="C33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="56" t="s">
+        <v>150</v>
+      </c>
       <c r="E33" s="52"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="27"/>
+      <c r="F33" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="148" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="149" t="s">
+        <v>153</v>
+      </c>
       <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
+      <c r="J33" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="L33" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="M33" s="120"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="86">
@@ -3856,7 +4039,7 @@
       <c r="G42" s="38"/>
       <c r="H42" s="25"/>
       <c r="I42" s="71"/>
-      <c r="J42" s="109"/>
+      <c r="J42" s="108"/>
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
       <c r="M42" s="71"/>
@@ -3886,15 +4069,15 @@
       <c r="A44" s="86">
         <v>41</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="95" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="89"/>
       <c r="E44" s="90"/>
-      <c r="F44" s="97"/>
+      <c r="F44" s="96"/>
       <c r="G44" s="92"/>
       <c r="H44" s="93"/>
       <c r="I44" s="94"/>
@@ -3941,7 +4124,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="70"/>
       <c r="J46" s="70"/>
-      <c r="K46" s="111"/>
+      <c r="K46" s="110"/>
       <c r="L46" s="71"/>
       <c r="M46" s="71"/>
     </row>
@@ -3970,15 +4153,15 @@
       <c r="A48" s="13">
         <v>45</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="116" t="s">
+      <c r="C48" s="115" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="52"/>
-      <c r="F48" s="117"/>
+      <c r="F48" s="116"/>
       <c r="G48" s="42"/>
       <c r="H48" s="27"/>
       <c r="I48" s="66"/>
@@ -4025,7 +4208,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="71"/>
       <c r="J50" s="71"/>
-      <c r="K50" s="112"/>
+      <c r="K50" s="111"/>
       <c r="L50" s="75"/>
       <c r="M50" s="71"/>
     </row>
@@ -4151,9 +4334,9 @@
       <c r="H56" s="25"/>
       <c r="I56" s="65"/>
       <c r="J56" s="65"/>
-      <c r="K56" s="113"/>
+      <c r="K56" s="112"/>
       <c r="L56" s="65"/>
-      <c r="M56" s="114"/>
+      <c r="M56" s="113"/>
     </row>
     <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="12">
@@ -4172,9 +4355,9 @@
       <c r="H57" s="25"/>
       <c r="I57" s="65"/>
       <c r="J57" s="65"/>
-      <c r="K57" s="113"/>
+      <c r="K57" s="112"/>
       <c r="L57" s="65"/>
-      <c r="M57" s="114"/>
+      <c r="M57" s="113"/>
     </row>
     <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="13">
@@ -4193,9 +4376,9 @@
       <c r="H58" s="27"/>
       <c r="I58" s="66"/>
       <c r="J58" s="66"/>
-      <c r="K58" s="101"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="66"/>
-      <c r="M58" s="102"/>
+      <c r="M58" s="101"/>
     </row>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="14">
@@ -4214,9 +4397,9 @@
       <c r="H59" s="26"/>
       <c r="I59" s="67"/>
       <c r="J59" s="67"/>
-      <c r="K59" s="99"/>
+      <c r="K59" s="98"/>
       <c r="L59" s="67"/>
-      <c r="M59" s="100"/>
+      <c r="M59" s="99"/>
     </row>
     <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="14">
@@ -4235,9 +4418,9 @@
       <c r="H60" s="26"/>
       <c r="I60" s="67"/>
       <c r="J60" s="67"/>
-      <c r="K60" s="99"/>
+      <c r="K60" s="98"/>
       <c r="L60" s="67"/>
-      <c r="M60" s="100"/>
+      <c r="M60" s="99"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="12">
@@ -4340,7 +4523,7 @@
       <c r="H65" s="25"/>
       <c r="I65" s="65"/>
       <c r="J65" s="65"/>
-      <c r="K65" s="98"/>
+      <c r="K65" s="97"/>
       <c r="L65" s="65"/>
       <c r="M65" s="65"/>
     </row>
@@ -4354,8 +4537,8 @@
       <c r="C66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="118"/>
-      <c r="E66" s="119"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="118"/>
       <c r="F66" s="54"/>
       <c r="G66" s="41"/>
       <c r="H66" s="26"/>
@@ -4383,7 +4566,7 @@
       <c r="I67" s="67"/>
       <c r="J67" s="67"/>
       <c r="K67" s="67"/>
-      <c r="L67" s="103"/>
+      <c r="L67" s="102"/>
       <c r="M67" s="67"/>
     </row>
     <row r="68" spans="1:13" ht="17.100000000000001" customHeight="1">
@@ -4576,115 +4759,115 @@
       <c r="M76" s="65"/>
     </row>
     <row r="77" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A77" s="123">
+      <c r="A77" s="122">
         <v>74</v>
       </c>
-      <c r="B77" s="124" t="s">
+      <c r="B77" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="125" t="s">
+      <c r="C77" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="126"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="128"/>
-      <c r="G77" s="129"/>
-      <c r="H77" s="130"/>
-      <c r="I77" s="131"/>
-      <c r="J77" s="131"/>
-      <c r="K77" s="131"/>
-      <c r="L77" s="131"/>
-      <c r="M77" s="131"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="128"/>
+      <c r="H77" s="129"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="130"/>
+      <c r="M77" s="130"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
+    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId6"/>
     </customSheetView>
-    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId8"/>
     </customSheetView>
-    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId9"/>
     </customSheetView>
-    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId10"/>
     </customSheetView>
-    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId11"/>
     </customSheetView>
-    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId12"/>
     </customSheetView>
-    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId13"/>
     </customSheetView>
-    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId14"/>
     </customSheetView>
-    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId15"/>
     </customSheetView>
@@ -4694,93 +4877,93 @@
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId16"/>
     </customSheetView>
-    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId17"/>
     </customSheetView>
-    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId18"/>
     </customSheetView>
-    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId19"/>
     </customSheetView>
-    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId20"/>
     </customSheetView>
-    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId21"/>
     </customSheetView>
-    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId22"/>
     </customSheetView>
-    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId23"/>
     </customSheetView>
-    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId24"/>
     </customSheetView>
-    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId25"/>
     </customSheetView>
-    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId26"/>
     </customSheetView>
-    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId27"/>
     </customSheetView>
-    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId28"/>
     </customSheetView>
-    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId29"/>
     </customSheetView>
-    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
+    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId30"/>
     </customSheetView>
-    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId31"/>
     </customSheetView>

--- a/schedule/就職活動アタック企業リストteam.xlsx
+++ b/schedule/就職活動アタック企業リストteam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP023\Desktop\data\就活関連\20_筒井\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,43 +16,43 @@
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="teacher - 個人用ビュー" guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" mergeInterval="0" personalView="1" xWindow="109" yWindow="10" windowWidth="1714" windowHeight="1049" activeSheetId="1"/>
+    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
+    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
+    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
+    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
+    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
+    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
+    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
+    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
+    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
+    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
+    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="田中 章 情報系学科 - 個人用ビュー" guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1743" windowHeight="817" activeSheetId="1"/>
-    <customWorkbookView name="game117 - 個人用ビュー" guid="{34336185-6885-4656-81F5-C36504E7D7D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game107 - 個人用ビュー" guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" mergeInterval="0" personalView="1" xWindow="471" yWindow="84" windowWidth="1432" windowHeight="843" activeSheetId="1"/>
-    <customWorkbookView name="game113 - 個人用ビュー" guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game128 - 個人用ビュー" guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game123 - 個人用ビュー" guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game115 - 個人用ビュー" guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game114 - 個人用ビュー" guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" mergeInterval="0" personalView="1" xWindow="-39" yWindow="44" windowWidth="1468" windowHeight="853" activeSheetId="1"/>
-    <customWorkbookView name="game119 - 個人用ビュー" guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game121 - 個人用ビュー" guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" mergeInterval="0" personalView="1" xWindow="98" yWindow="23" windowWidth="1483" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="game104 - 個人用ビュー" guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1098" activeSheetId="1"/>
-    <customWorkbookView name="game105 - 個人用ビュー" guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game134 - 個人用ビュー" guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" mergeInterval="0" personalView="1" xWindow="526" yWindow="82" windowWidth="1407" windowHeight="775" activeSheetId="1"/>
-    <customWorkbookView name="game112 - 個人用ビュー" guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" mergeInterval="0" personalView="1" windowWidth="1402" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game124 - 個人用ビュー" guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" mergeInterval="0" personalView="1" xWindow="264" windowWidth="1511" windowHeight="998" activeSheetId="1"/>
-    <customWorkbookView name="game109 - 個人用ビュー" guid="{217808A1-F1FF-4629-A9BA-4CF782580B90}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game101 - 個人用ビュー" guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game122 - 個人用ビュー" guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game111 - 個人用ビュー" guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1"/>
-    <customWorkbookView name="game133 - 個人用ビュー" guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game129 - 個人用ビュー" guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game136 - 個人用ビュー" guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game135 - 個人用ビュー" guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game120 - 個人用ビュー" guid="{25635186-E07C-4625-901A-E3155152FC46}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game102 - 個人用ビュー" guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game103 - 個人用ビュー" guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" mergeInterval="0" personalView="1" xWindow="960" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game126 - 個人用ビュー" guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="game127 - 個人用ビュー" guid="{745FEE27-C629-4114-B335-17F79CE8308C}" mergeInterval="0" personalView="1" xWindow="770" yWindow="4" windowWidth="960" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="game130 - 個人用ビュー" guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" mergeInterval="0" personalView="1" xWindow="420" yWindow="50" windowWidth="1402" windowHeight="927" activeSheetId="1"/>
-    <customWorkbookView name="game106 - 個人用ビュー" guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1080" activeSheetId="1"/>
-    <customWorkbookView name="teacher - 個人用ビュー" guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" mergeInterval="0" personalView="1" xWindow="109" yWindow="10" windowWidth="1714" windowHeight="1049" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="163">
   <si>
     <t>企業名</t>
     <rPh sb="0" eb="2">
@@ -1235,6 +1235,32 @@
   <si>
     <t>履歴書（写真付き),エントリーシート,ポートフォリオなど</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 〒150-0036　東京都渋谷区南平台町16番17号
+住友不動産渋谷ガーデンタワー15階(大阪に支店あり)</t>
+  </si>
+  <si>
+    <t>プランナー・エンジニア・デザイナー</t>
+  </si>
+  <si>
+    <t>シャドウバース・プリンセスコネクト</t>
+  </si>
+  <si>
+    <t>最高のコンテンツを作る会社　　　　　　　　　　　　　　　　　　　　　　　　　　　みんなでたくさんゲームをやる
+誰よりも面白いゲームを作る人は、誰よりもたくさんの面白いゲームをプレイしているはずです。せっかく会社に人が集まっているのですから、仕事中でもプライベートでもみんなで楽しくゲームをしてゲームの話をしましょう。
+社員みんなで楽しくゲームをやる会社サイゲームス。
+常に「チーム・サイゲームス」の意識を忘れない
+最高のコンテンツは1人で作るのではなく、みんなで力を合わせて作るものです。みんなの能力を合わせることで1人では作れない最高のコンテンツを作りましょう。
+自分の為ではなく、チームの為に仕事をする集団サイゲームス。
+最強のブランドを目指す
+社員が日々発信するあらゆるものが、Cygamesブランドを高める、また低める可能性があります。ひとつひとつの仕様書、イラスト、ソースコードといった制作物はもちろん、電話の受け答え、お客様の前での立ち振る舞い、社員のモラル、そのすべてが会社のブランドイメージに直結します。大切にしましょう。ブランド人の集合体としてのブランド企業サイゲームス。</t>
+  </si>
+  <si>
+    <t>インターンシップあり</t>
+  </si>
+  <si>
+    <t>ホームページからエントリー</t>
   </si>
 </sst>
 </file>
@@ -2376,9 +2402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2691,9 +2714,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2705,6 +2725,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3015,7 +3041,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3035,16 +3061,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -3106,16 +3132,16 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="76"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="12">
@@ -3127,16 +3153,16 @@
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="34"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="12">
@@ -3148,37 +3174,37 @@
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="29"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="29"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="13">
@@ -3190,16 +3216,16 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="57"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="31"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="106"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="14">
@@ -3211,16 +3237,16 @@
       <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="30"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="12">
@@ -3232,16 +3258,16 @@
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="29"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="12">
@@ -3253,37 +3279,37 @@
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="30"/>
       <c r="H12" s="26"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="13">
@@ -3295,16 +3321,16 @@
       <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="31"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="66"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="14">
@@ -3316,16 +3342,16 @@
       <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="30"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="119"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="118"/>
     </row>
     <row r="15" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="14">
@@ -3337,16 +3363,16 @@
       <c r="C15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="30"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:18" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="12">
@@ -3358,16 +3384,16 @@
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="29"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="12">
@@ -3379,16 +3405,16 @@
       <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="29"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
     </row>
     <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="13">
@@ -3400,34 +3426,34 @@
       <c r="C18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="31"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="50" t="s">
         <v>122</v>
       </c>
       <c r="G19" s="29" t="s">
@@ -3436,11 +3462,11 @@
       <c r="H19" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
     </row>
     <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="14">
@@ -3452,24 +3478,24 @@
       <c r="C20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>128</v>
       </c>
       <c r="H20" s="26"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1">
       <c r="A21" s="12">
@@ -3481,24 +3507,24 @@
       <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="50" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>132</v>
       </c>
       <c r="H21" s="25"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="74"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22" spans="1:17" ht="220.5" customHeight="1">
       <c r="A22" s="12">
@@ -3510,30 +3536,30 @@
       <c r="C22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="85" t="s">
+      <c r="G22" s="84" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="65" t="s">
+      <c r="J22" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="132" t="s">
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="131" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3547,22 +3573,22 @@
       <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="133" t="s">
+      <c r="D23" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="57" t="s">
+      <c r="E23" s="51"/>
+      <c r="F23" s="56" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-    </row>
-    <row r="24" spans="1:17" ht="17.100000000000001" customHeight="1">
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+    </row>
+    <row r="24" spans="1:17" ht="154.5" customHeight="1">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -3572,41 +3598,53 @@
       <c r="C24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
+      <c r="D24" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
     </row>
     <row r="25" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="29"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65" t="s">
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="65" t="s">
+      <c r="L25" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="65" t="s">
+      <c r="M25" s="64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3620,20 +3658,20 @@
       <c r="C26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="30"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="84" t="s">
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="M26" s="84" t="s">
+      <c r="M26" s="83" t="s">
         <v>138</v>
       </c>
       <c r="Q26" s="15"/>
@@ -3648,20 +3686,20 @@
       <c r="C27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65" t="s">
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="132" t="s">
+      <c r="L27" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="64" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3669,30 +3707,30 @@
       <c r="A28" s="13">
         <v>25</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="76" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="57" t="s">
+      <c r="E28" s="51"/>
+      <c r="F28" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="121" t="s">
+      <c r="H28" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66" t="s">
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3706,24 +3744,24 @@
       <c r="C29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="140" t="s">
+      <c r="D29" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54" t="s">
+      <c r="E29" s="52"/>
+      <c r="F29" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="134" t="s">
+      <c r="G29" s="133" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="135" t="s">
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="134" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3737,30 +3775,30 @@
       <c r="C30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="136" t="s">
+      <c r="G30" s="135" t="s">
         <v>110</v>
       </c>
       <c r="H30" s="26"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="84" t="s">
+      <c r="I30" s="66"/>
+      <c r="J30" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="137" t="s">
+      <c r="K30" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="L30" s="138" t="s">
+      <c r="L30" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="M30" s="67"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="14">
@@ -3772,20 +3810,20 @@
       <c r="C31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="146" t="s">
+      <c r="D31" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54" t="s">
+      <c r="E31" s="52"/>
+      <c r="F31" s="53" t="s">
         <v>143</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="12">
@@ -3797,26 +3835,26 @@
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="147" t="s">
+      <c r="G32" s="35"/>
+      <c r="H32" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65" t="s">
+      <c r="I32" s="64"/>
+      <c r="J32" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="65"/>
-      <c r="L32" s="132" t="s">
+      <c r="K32" s="64"/>
+      <c r="L32" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M32" s="132" t="s">
+      <c r="M32" s="131" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3824,57 +3862,57 @@
       <c r="A33" s="13">
         <v>30</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="76" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="57" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="148" t="s">
+      <c r="G33" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="H33" s="149" t="s">
+      <c r="H33" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="150" t="s">
+      <c r="I33" s="65"/>
+      <c r="J33" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="K33" s="120" t="s">
+      <c r="K33" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="L33" s="66" t="s">
+      <c r="L33" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="M33" s="120"/>
+      <c r="M33" s="119"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="86">
+      <c r="A34" s="85">
         <v>31</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="14">
@@ -3886,79 +3924,79 @@
       <c r="C35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="41"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="14">
         <v>33</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="77" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="41"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="12">
         <v>34</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="80">
+      <c r="A38" s="79">
         <v>35</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="14">
@@ -3970,37 +4008,37 @@
       <c r="C39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="41"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="26"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
     </row>
     <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
     </row>
     <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="12">
@@ -4012,37 +4050,37 @@
       <c r="C41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="38"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
     </row>
     <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="38"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
     </row>
     <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="14">
@@ -4054,58 +4092,58 @@
       <c r="C43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="41"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="26"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
     </row>
     <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="86">
+      <c r="A44" s="85">
         <v>41</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="95" t="s">
+      <c r="C44" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
     </row>
     <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="14">
         <v>42</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="77" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="41"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="26"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
     </row>
     <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="12">
@@ -4117,16 +4155,16 @@
       <c r="C46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="25"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
     </row>
     <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="12">
@@ -4138,37 +4176,37 @@
       <c r="C47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="38"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="25"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="71"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="70"/>
     </row>
     <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13">
         <v>45</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="42"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
     </row>
     <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="14">
@@ -4180,16 +4218,16 @@
       <c r="C49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="43"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
     </row>
     <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="12">
@@ -4201,16 +4239,16 @@
       <c r="C50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="40"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="25"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="71"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="70"/>
     </row>
     <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="12">
@@ -4222,16 +4260,16 @@
       <c r="C51" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="38"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="37"/>
       <c r="H51" s="25"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
     </row>
     <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="12">
@@ -4243,16 +4281,16 @@
       <c r="C52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="37"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="71"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="70"/>
     </row>
     <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13">
@@ -4264,16 +4302,16 @@
       <c r="C53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="42"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="27"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="72"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="71"/>
     </row>
     <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="14">
@@ -4285,16 +4323,16 @@
       <c r="C54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="41"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="26"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
     </row>
     <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="12">
@@ -4306,37 +4344,37 @@
       <c r="C55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="37"/>
       <c r="H55" s="25"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
     </row>
     <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="12">
         <v>53</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="78" t="s">
         <v>76</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="38"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="37"/>
       <c r="H56" s="25"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="113"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="112"/>
     </row>
     <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="12">
@@ -4348,16 +4386,16 @@
       <c r="C57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="38"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="37"/>
       <c r="H57" s="25"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="113"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="112"/>
     </row>
     <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="13">
@@ -4369,37 +4407,37 @@
       <c r="C58" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="42"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="27"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="101"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="100"/>
     </row>
     <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="14">
         <v>56</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="77" t="s">
         <v>78</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="41"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="99"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="98"/>
     </row>
     <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="14">
@@ -4411,16 +4449,16 @@
       <c r="C60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="41"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="99"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="98"/>
     </row>
     <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="12">
@@ -4432,16 +4470,16 @@
       <c r="C61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="38"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="37"/>
       <c r="H61" s="25"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
     </row>
     <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="14">
@@ -4453,16 +4491,16 @@
       <c r="C62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="41"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="40"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
     </row>
     <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13">
@@ -4474,16 +4512,16 @@
       <c r="C63" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="42"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="27"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
     </row>
     <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="14">
@@ -4495,16 +4533,16 @@
       <c r="C64" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="55"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="41"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="26"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
     </row>
     <row r="65" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="12">
@@ -4516,16 +4554,16 @@
       <c r="C65" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="38"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="37"/>
       <c r="H65" s="25"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
     </row>
     <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="14">
@@ -4537,16 +4575,16 @@
       <c r="C66" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="117"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="41"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="40"/>
       <c r="H66" s="26"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="66"/>
     </row>
     <row r="67" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="14">
@@ -4558,16 +4596,16 @@
       <c r="C67" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="41"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="40"/>
       <c r="H67" s="26"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="67"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="66"/>
     </row>
     <row r="68" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="13">
@@ -4579,16 +4617,16 @@
       <c r="C68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="42"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="41"/>
       <c r="H68" s="27"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
     </row>
     <row r="69" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="14">
@@ -4600,16 +4638,16 @@
       <c r="C69" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="41"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="40"/>
       <c r="H69" s="26"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
     </row>
     <row r="70" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="12">
@@ -4621,16 +4659,16 @@
       <c r="C70" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="38"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="37"/>
       <c r="H70" s="25"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
     </row>
     <row r="71" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="12">
@@ -4642,16 +4680,16 @@
       <c r="C71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="38"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="37"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
     </row>
     <row r="72" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="12">
@@ -4663,16 +4701,16 @@
       <c r="C72" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="38"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="37"/>
       <c r="H72" s="25"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
     </row>
     <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="13">
@@ -4684,16 +4722,16 @@
       <c r="C73" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="42"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="27"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
     </row>
     <row r="74" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="14">
@@ -4705,16 +4743,16 @@
       <c r="C74" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="41"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="40"/>
       <c r="H74" s="26"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
     </row>
     <row r="75" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="12">
@@ -4726,148 +4764,148 @@
       <c r="C75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="38"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="37"/>
       <c r="H75" s="25"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
     </row>
     <row r="76" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="12">
         <v>73</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="78" t="s">
         <v>90</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="38"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="37"/>
       <c r="H76" s="25"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
     </row>
     <row r="77" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A77" s="122">
+      <c r="A77" s="121">
         <v>74</v>
       </c>
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="124" t="s">
+      <c r="C77" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="125"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="128"/>
-      <c r="H77" s="129"/>
-      <c r="I77" s="130"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="130"/>
-      <c r="L77" s="130"/>
-      <c r="M77" s="130"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="128"/>
+      <c r="I77" s="129"/>
+      <c r="J77" s="129"/>
+      <c r="K77" s="129"/>
+      <c r="L77" s="129"/>
+      <c r="M77" s="129"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
+    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId6"/>
     </customSheetView>
-    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId8"/>
     </customSheetView>
-    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId9"/>
     </customSheetView>
-    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId10"/>
     </customSheetView>
-    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId11"/>
     </customSheetView>
-    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId12"/>
     </customSheetView>
-    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
+      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId13"/>
     </customSheetView>
-    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId14"/>
     </customSheetView>
-    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId15"/>
     </customSheetView>
@@ -4877,93 +4915,93 @@
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId16"/>
     </customSheetView>
-    <customSheetView guid="{5A163C6E-7E1D-4BA7-BDF1-A0A9418FCA06}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="I40" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+    <customSheetView guid="{5AC635BA-81DD-4B25-94C6-09DEE18EE38E}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId17"/>
     </customSheetView>
-    <customSheetView guid="{D91C6B33-CDAD-4C8E-AC65-E73FB5316899}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    <customSheetView guid="{8B2BBB32-6F90-42C6-A7E3-3EF9D438D7EE}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId18"/>
     </customSheetView>
-    <customSheetView guid="{3FB757ED-B4B5-4830-AD4F-9FCCEDAD73FE}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+    <customSheetView guid="{04D6FBE3-B37C-4910-8C2B-EE0CAD43409B}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId19"/>
     </customSheetView>
-    <customSheetView guid="{B99D5C77-E457-4EAA-BEB8-8AA9FD6198F5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    <customSheetView guid="{6D94CAD0-DCB4-4A10-B64C-0168C4EA974E}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId20"/>
     </customSheetView>
-    <customSheetView guid="{3358D96F-7863-4680-8AEF-DDE3F88A71C9}">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+    <customSheetView guid="{12A38D7D-4B28-4BC2-B8E3-B6476834AB39}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId21"/>
     </customSheetView>
-    <customSheetView guid="{A5922E92-3979-45FE-A65C-73D0498FA0C5}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="J62" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+    <customSheetView guid="{45B0FDA0-4593-4E3B-B098-F8D68AA7B2E9}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId22"/>
     </customSheetView>
-    <customSheetView guid="{7E72D5B7-F6A8-4466-BBF0-CDD57FF9343A}">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+    <customSheetView guid="{7E30C0E2-70B5-47FD-A952-9684D8048717}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId23"/>
     </customSheetView>
-    <customSheetView guid="{25635186-E07C-4625-901A-E3155152FC46}" scale="145">
-      <pane xSplit="3" ySplit="3" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+    <customSheetView guid="{2D2A542F-F8A7-4BF2-83E9-99B322A7424C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId24"/>
     </customSheetView>
-    <customSheetView guid="{0AC75D17-E7B3-4E00-86C9-E6ED2A74F58A}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    <customSheetView guid="{2257F689-D658-4C7B-B46A-A0D4DF724C0C}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId25"/>
     </customSheetView>
-    <customSheetView guid="{968CEA8A-D366-4A11-A281-CE0AF9F0A468}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+    <customSheetView guid="{E0E2817E-D1ED-435B-B965-204E0AEE42F5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId26"/>
     </customSheetView>
-    <customSheetView guid="{94333F63-14A4-4846-9AA0-F8003F8DFAA0}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
+    <customSheetView guid="{2E43DFDB-88B6-4A2E-8793-747BB9D5F61E}" scale="115">
+      <pane xSplit="3" ySplit="3" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId27"/>
     </customSheetView>
-    <customSheetView guid="{745FEE27-C629-4114-B335-17F79CE8308C}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+    <customSheetView guid="{6B983B55-6C37-48B2-BE24-E32EC220E2C0}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId28"/>
     </customSheetView>
-    <customSheetView guid="{2A657027-1CDA-4DB1-AE06-645C311DB16C}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+    <customSheetView guid="{89CCB891-6FDE-45D9-A6A4-03A92E7A808F}" scale="145">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId29"/>
     </customSheetView>
-    <customSheetView guid="{88CDBE72-9960-4B00-B075-D3F112067F3F}" scale="70">
-      <pane xSplit="3" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+    <customSheetView guid="{34336185-6885-4656-81F5-C36504E7D7D5}" scale="70">
+      <pane xSplit="3" ySplit="3" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46:B73"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId30"/>
     </customSheetView>
-    <customSheetView guid="{DF638FDF-6B69-4D11-BDA8-FBD60343E282}" scale="85">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+    <customSheetView guid="{25DCFA89-48AF-47D8-9023-951102E2CD8F}" scale="85">
+      <pane xSplit="3" ySplit="3" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
       <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="8" orientation="portrait" r:id="rId31"/>
     </customSheetView>
